--- a/Business/Finance/UNH Sponsorship and Grants/SAFC/SAFC_UNH_SEDS_Proposal_SpaceVision.xlsx
+++ b/Business/Finance/UNH Sponsorship and Grants/SAFC/SAFC_UNH_SEDS_Proposal_SpaceVision.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\UNHSEDS\Business\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\UNHSEDS\Business\Finance\UNH Sponsorship and Grants\SAFC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9274C7-CA8A-434A-AF5F-A902697270AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Proposed Expenses</t>
   </si>
@@ -110,9 +117,6 @@
     <t>SpaceVision</t>
   </si>
   <si>
-    <t>Airplane Ticket and General Travel</t>
-  </si>
-  <si>
     <t>Hotel Housing (3 Nights)</t>
   </si>
   <si>
@@ -131,16 +135,28 @@
     <t>cjn1012@wildcats.unh.edu</t>
   </si>
   <si>
-    <t>November 1st</t>
-  </si>
-  <si>
-    <t>San Diego</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Airplane Ticket</t>
+  </si>
+  <si>
+    <t>Food and General Travel</t>
+  </si>
+  <si>
+    <t>November 7th</t>
+  </si>
+  <si>
+    <t>Tempe, AZ</t>
+  </si>
+  <si>
+    <t>November 21st</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -261,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,7 +286,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +455,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -432,9 +466,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -490,6 +521,83 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -499,91 +607,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -626,7 +672,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -658,25 +710,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="3162300"/>
-          <a:ext cx="3000376" cy="1647825"/>
+          <a:off x="0" y="2640106"/>
+          <a:ext cx="2958352" cy="2391335"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,18 +769,36 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Average $440.00 per</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Round-Trip Flight </a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Expense Breakdown:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>	 (16*$430 = $6,880 </a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$421.60 per</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Round-Trip Flight per person</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(20*$421.6 = $8,432) </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -730,14 +806,22 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>$100.00 per student for Hotel Stay (3 Nights)</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$145.00 per room per night (5 Rooms 3 Nights)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>	 (16*$100=$1,600)</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>($145*5*3=$2,175)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -745,16 +829,49 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>$85.00 entrance fee for the Entire Conference</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$85.00 entrance fee for the Entire Conference (20*$89.75 = $1,795)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>$10 Meals (6 Meals</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) and $10 per car (5 Cars)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>	 (16*$85 = $1360</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>($10*6*20+$10*5*3=$1,350)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -763,25 +880,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>302558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="219075" y="5057775"/>
-          <a:ext cx="2914650" cy="1333500"/>
+          <a:off x="0" y="5030879"/>
+          <a:ext cx="2958352" cy="1132355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,23 +939,40 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>The 16 UNH</a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Additional Revenue</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> Students going paid all expenses upfront. UNH SEDS seeks financial assistance in reimbursing each student $65.00 for attending this conference representing UNH. </a:t>
+            <a:rPr lang="en-US" sz="1100" u="sng" baseline="0"/>
+            <a:t> Breakdown:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none"/>
+            <a:t>$2,175</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t> from CEPS Deans Office for Housing</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+          <a:endParaRPr lang="en-US" sz="1100" u="none" baseline="0"/>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Powerpoint Presentation Provided.</a:t>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>$100 per student from Department Heads of Mechanical, Electrical, and Computer Science</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="none" baseline="0"/>
+            <a:t>($100*20 = $2000)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" u="none"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -917,6 +1057,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -952,6 +1109,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,14 +1301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="90" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,125 +1323,124 @@
     <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="3.140625" customWidth="1"/>
     <col min="11" max="11" width="1.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="34" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="38" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="63"/>
+      <c r="H2" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="29" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="35" t="s">
+      <c r="G4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="29" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="27"/>
+      <c r="H5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="37" t="e">
-        <f>G4+14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="24" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="55" t="s">
@@ -1277,414 +1450,422 @@
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="67">
+        <f>20*421.6</f>
+        <v>8432</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="6">
-        <v>6880</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="66">
+        <f>145*5*3</f>
+        <v>2175</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="6">
-        <v>1600</v>
-      </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="6">
-        <v>1360</v>
-      </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="68">
+        <f>89.75*20</f>
+        <v>1795</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="13"/>
+      <c r="A12" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="69">
+        <f>(6*10*20)+(3*5*10)</f>
+        <v>1350</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="13"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="13"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="13"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="13"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="13"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="13"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="13"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="13"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="14"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="14"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="14"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="14"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="14"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="14"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="14"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="14"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="14"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="14"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="21">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="20">
         <f>SUM(F8:F31)</f>
-        <v>9840</v>
-      </c>
-      <c r="G32" s="49" t="s">
+        <v>13752</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="23">
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="22">
         <f>SUM(L8:L31)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="16"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="15"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="45"/>
-      <c r="K34" s="45"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1692,20 +1873,20 @@
         <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="4">
-        <v>550</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="5">
         <f>B35*D35</f>
-        <v>8800</v>
+        <v>8280</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>4</v>
@@ -1731,8 +1912,8 @@
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="3">
-        <v>5000</v>
+      <c r="B36" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1767,215 +1948,277 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="46" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="10">
+        <f>2175+(100*20)</f>
+        <v>4175</v>
+      </c>
+      <c r="G37" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="17"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="16"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="9">
-        <f>F35</f>
-        <v>8800</v>
-      </c>
-      <c r="G38" s="62" t="s">
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="8">
+        <f>F35+F37</f>
+        <v>12455</v>
+      </c>
+      <c r="G38" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="15">
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="14">
         <f>SUM(L35:L36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="17"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="16"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="12">
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="11">
         <f>F32-F38</f>
-        <v>1040</v>
-      </c>
-      <c r="G40" s="62" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="30">
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="29">
         <f>L32-L38</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="18">
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="17">
         <f>F40/B35</f>
-        <v>65</v>
-      </c>
-      <c r="G41" s="61" t="s">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="G41" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="18" t="e">
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="17" t="e">
         <f>L40/H35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="44"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
+      <c r="B43" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
+      <c r="H43" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="B44" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
       <c r="G44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H44" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
+      <c r="H44" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="64"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="64"/>
-      <c r="L46" s="64"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
-      <c r="I47" s="64"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="64"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:L3"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="G31:K31"/>
     <mergeCell ref="A45:L47"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="G20:K20"/>
@@ -1992,74 +2235,15 @@
     <mergeCell ref="G14:K14"/>
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H44" r:id="rId1"/>
-    <hyperlink ref="B44" r:id="rId2"/>
+    <hyperlink ref="H44" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B44" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="portrait" r:id="rId3"/>
+  <pageSetup scale="81" orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Calibri (Body),Bold"&amp;14Proposal&amp;R&amp;"Calibri (Body),Bold"&amp;14SAFC DATE: MM/DD/YYYY</oddHeader>
     <oddFooter>&amp;C&amp;"Calibri (Body),Regular"&amp;12Committee Decision: ______________________________________</oddFooter>
